--- a/docss/trend/finland/E_huntington.xlsx
+++ b/docss/trend/finland/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,224 +1581,224 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.1262759193778038</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.17749689891934395</v>
-      </c>
-      <c r="D2" s="7">
-        <v>7.410753145813942E-2</v>
+      <c r="B2">
+        <v>0.126</v>
+      </c>
+      <c r="C2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D2">
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.58122568577528E-2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>4.0449798107147217E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3.3189825713634491E-2</v>
+      <c r="B3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.10669625550508499</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6.9503404200077057E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.14022507891058922</v>
+      <c r="B4">
+        <v>0.107</v>
+      </c>
+      <c r="C4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.11406070739030838</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.13937330991029739</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9.4915013760328293E-2</v>
+      <c r="B5">
+        <v>0.114</v>
+      </c>
+      <c r="C5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D5">
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.1532479515299201</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.1362101286649704</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.16356042958796024</v>
+      <c r="B6">
+        <v>0.153</v>
+      </c>
+      <c r="C6">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>9.5131896436214447E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6.8018045276403427E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.11994527839124203</v>
+      <c r="B7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>3.3950233832001686E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3.5237323492765427E-2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3.4151840955018997E-2</v>
+      <c r="B8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>4.9497676081955433E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6.9714512676000595E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3.202274814248085E-2</v>
+      <c r="B9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>6.7335904575884342E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>7.2201261296868324E-2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5.9029078111052513E-2</v>
+      <c r="B10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.11179416906088591</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.15085430443286896</v>
-      </c>
-      <c r="D11" s="7">
-        <v>8.0819720402359962E-2</v>
+      <c r="B11">
+        <v>0.112</v>
+      </c>
+      <c r="C11">
+        <v>0.151</v>
+      </c>
+      <c r="D11">
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.12740094400942326</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.19212167337536812</v>
-      </c>
-      <c r="D12" s="7">
-        <v>6.224614754319191E-2</v>
+      <c r="B12">
+        <v>0.127</v>
+      </c>
+      <c r="C12">
+        <v>0.192</v>
+      </c>
+      <c r="D12">
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>8.9683446101844311E-2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8.1993075087666512E-2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9.7609641030430794E-2</v>
+      <c r="B13">
+        <v>0.09</v>
+      </c>
+      <c r="C13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>8.3132281899452209E-2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9.4636332243680954E-2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6.8403031677007675E-2</v>
+      <c r="B14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C14">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>5.7431085035204887E-2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8.2640679553151131E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4.4022314250469208E-2</v>
+      <c r="B15">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>8.4477231372147799E-2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7.7196246013045311E-2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9.3267478048801422E-2</v>
+      <c r="B16">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C16">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
-        <v>6.6953294444829226E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.3920584470033646E-2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.1031541870906949</v>
+      <c r="B17">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.10299999999999999</v>
       </c>
     </row>
   </sheetData>
